--- a/Daily Orders/December-2020-Orders.xlsx
+++ b/Daily Orders/December-2020-Orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="01_To_10_Dec-2020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="231">
   <si>
     <t>S.No.</t>
   </si>
@@ -674,6 +674,45 @@
   </si>
   <si>
     <t>11 Dec 2020 / 17:22</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 12:21</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:17</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:28</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:29</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:30</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:31</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:32</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 15:36</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 17:17</t>
+  </si>
+  <si>
+    <t>ASHU COMMUNICATION-(661025161)</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 17:19</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 17:21</t>
+  </si>
+  <si>
+    <t>12 Dec 2020 / 17:23</t>
   </si>
 </sst>
 </file>
@@ -682,10 +721,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -704,16 +743,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,45 +774,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,9 +788,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,15 +804,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -820,7 +836,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,16 +880,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,19 +908,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,43 +950,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,49 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,6 +998,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1013,7 +1046,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,19 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,17 +1126,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1157,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,28 +1194,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,7 +1204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,130 +1222,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6779,6 +6818,580 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="419100" y="3048000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3429000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3619500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="3810000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4000500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4191000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4381500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4572000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4762500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="4953000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5143500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5334000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5524500"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5715000"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="5905500"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7055,8 +7668,10 @@
   <sheetPr/>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11609,10 +12224,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11699,7 +12314,7 @@
       </c>
       <c r="J3" s="10">
         <f>SUM(D2:D193)</f>
-        <v>49920</v>
+        <v>94640</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -11754,7 +12369,7 @@
       </c>
       <c r="J5" s="1">
         <f>J8*0.04</f>
-        <v>1920</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
@@ -11828,7 +12443,7 @@
       </c>
       <c r="J8" s="1">
         <f>J3/1.04</f>
-        <v>48000</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12020,6 +12635,350 @@
       <c r="F17" s="7"/>
       <c r="G17" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2004246801</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2004307224</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2004377153</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2080</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2004380406</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2004381282</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2004383653</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2080</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2004383737</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2080</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2004385244</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2004393199</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2004449754</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3120</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2004454152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2004458040</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2004458444</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2080</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2004461115</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2004461755</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -12047,6 +13006,21 @@
     <hyperlink ref="B15" r:id="rId2" display="2004172574" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B16" r:id="rId2" display="2004210604" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B17" r:id="rId2" display="2004232034" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B18" r:id="rId2" display="2004246801" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B19" r:id="rId2" display="2004307224" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B20" r:id="rId2" display="2004377153" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B21" r:id="rId2" display="2004380406" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B22" r:id="rId2" display="2004381282" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B23" r:id="rId2" display="2004383653" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B24" r:id="rId2" display="2004383737" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B25" r:id="rId2" display="2004385244" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B26" r:id="rId2" display="2004393199" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B27" r:id="rId2" display="2004449754" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B28" r:id="rId2" display="2004454152" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B29" r:id="rId2" display="2004458040" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B30" r:id="rId2" display="2004458444" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B31" r:id="rId2" display="2004461115" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B32" r:id="rId2" display="2004461755" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Daily Orders/December-2020-Orders.xlsx
+++ b/Daily Orders/December-2020-Orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01_To_10_Dec-2020" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="231">
   <si>
     <t>S.No.</t>
   </si>
@@ -721,9 +721,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -744,6 +744,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -751,15 +758,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,23 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,17 +803,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,15 +824,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -867,23 +865,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -908,7 +908,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +944,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +1010,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,25 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,67 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,25 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,11 +1126,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,16 +1152,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1176,26 +1191,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,13 +1204,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,134 +1222,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,20 +1359,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1391,6 +1400,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -7668,10 +7680,10 @@
   <sheetPr/>
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7680,7 +7692,7 @@
     <col min="2" max="2" width="11.7142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="53" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1428571428571" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.1428571428571" style="15" customWidth="1"/>
     <col min="6" max="6" width="15.5714285714286" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.14285714285714" style="1"/>
@@ -7688,119 +7700,119 @@
     <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="13" customFormat="1" spans="1:7">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2000457904</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>520</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2000459639</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2080</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <f>SUM(D2:D193)</f>
         <v>407160</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2000459702</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1040</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2000459824</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3120</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1">
@@ -7809,66 +7821,66 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2000459948</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2080</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2000460024</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2080</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>2000460228</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>2080</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
@@ -7877,4138 +7889,4138 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>2000460455</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1040</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>2000460519</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>3120</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>2000460671</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>2080</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>2000461912</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>3120</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>2000520567</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>3120</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>2000524687</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>1040</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>2000527468</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>1040</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>2000527861</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>2080</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>2000528117</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>2080</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="17"/>
+      <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>2000528639</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>520</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>2000529214</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>2080</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>2000529641</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>3120</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>2000529798</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>2080</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>2000530859</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2080</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>2000531121</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>1040</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>2000704404</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>2080</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>44168</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>2000705249</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>1040</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>44168</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="17"/>
+      <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>2000705250</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>2080</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>44168</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="17"/>
+      <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>2000706287</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>2080</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="17"/>
+      <c r="G27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>2000707358</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>2080</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="17"/>
+      <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>2000707359</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>2080</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="17"/>
+      <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>2000716535</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>520</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>2000717983</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>2080</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="17"/>
+      <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>2000719754</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>2080</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="17"/>
+      <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>2000877355</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>520</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>2000877611</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>2080</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>2000877978</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>1040</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>2000879642</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>2080</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="17"/>
+      <c r="G36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>2000880108</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>1040</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="17"/>
+      <c r="G37" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>2000923957</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>1040</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>2000923958</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>1040</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>2000951047</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>1040</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>2000954122</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>3120</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>2001053572</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>1040</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>44169</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>2001065454</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>3120</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>44169</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>2001078326</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>1040</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>44169</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>2001093216</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>3120</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>44169</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>2001098656</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>1040</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>44169</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>2001103865</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>2080</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>44169</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2001103978</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>1040</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>44169</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>2001106863</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>1040</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>44169</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>2001108994</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>4160</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>44169</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>2001111837</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>1040</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>44169</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>2001111960</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <v>2080</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>44169</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>2001112838</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <v>1040</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>44169</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>2001122112</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>1040</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>2001126873</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>2080</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>2001128999</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>3120</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>2001132197</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>2080</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="17"/>
+      <c r="G57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>2001132622</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>2080</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="17"/>
+      <c r="G58" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>2001133395</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <v>2080</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="17"/>
+      <c r="G59" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>2001240580</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <v>2080</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>2001246287</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <v>1040</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>2001253023</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <v>1040</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>2001268495</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
         <v>2080</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>2001278864</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <v>1040</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>2001281639</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="4">
         <v>2080</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>2001283252</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="4">
         <v>1040</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="17"/>
+      <c r="G66" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>2001283498</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <v>1040</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="17"/>
+      <c r="G67" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>2001337242</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <v>1040</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>2001337306</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <v>1040</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>2001339737</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <v>1040</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>2001345233</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <v>1040</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <v>2001346118</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <v>1040</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>2001347296</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <v>1040</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>2001351245</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <v>1040</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E74" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>2001352718</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <v>1040</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>2001353849</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <v>2080</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="17"/>
+      <c r="G76" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>2001461178</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <v>1040</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="5">
         <v>44170</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>2001498248</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <v>1040</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="5">
         <v>44170</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
         <v>2001513931</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <v>1040</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="5">
         <v>44170</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>2001517908</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <v>1040</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="5">
         <v>44170</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>2001518183</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <v>1040</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="5">
         <v>44170</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>2001528426</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <v>2080</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="3" t="s">
+      <c r="F82" s="17"/>
+      <c r="G82" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>2001533411</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <v>1040</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="17"/>
+      <c r="G83" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>2001533783</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <v>2080</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="3" t="s">
+      <c r="F84" s="17"/>
+      <c r="G84" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>2001534329</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <v>3120</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="3" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>2001613086</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <v>2080</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="3" t="s">
+      <c r="F86" s="17"/>
+      <c r="G86" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>2001624048</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <v>1040</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>2001640232</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
         <v>1040</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>2001640736</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
         <v>1040</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>2001651897</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <v>1040</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>2001653635</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <v>1040</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>2001662525</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <v>1040</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>2001666944</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <v>1040</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>2001670130</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <v>1040</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>2001672002</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <v>1040</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>2001674626</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <v>1040</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>2001683570</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <v>1040</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>2001685202</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <v>2080</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>2001739892</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <v>1040</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>2001743638</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <v>1040</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>2001749385</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="4">
         <v>1040</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G101" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>2001750782</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="4">
         <v>1040</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>2001752222</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="4">
         <v>1040</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>2001835486</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="4">
         <v>5200</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="5">
         <v>44171</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>2001850157</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="4">
         <v>10400</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="5">
         <v>44171</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="F105" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>2001866152</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="4">
         <v>3120</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="5">
         <v>44171</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>2001889945</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="4">
         <v>1040</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="5">
         <v>44171</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G107" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>2001892778</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="4">
         <v>2080</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="5">
         <v>44171</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>2001895752</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="4">
         <v>1040</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="5">
         <v>44171</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>2001897423</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="4">
         <v>2080</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="5">
         <v>44171</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G110" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>2001905681</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="4">
         <v>3120</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="5">
         <v>44171</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G111" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>2001914859</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="4">
         <v>2080</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="5">
         <v>44171</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>2001918816</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="4">
         <v>3120</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="5">
         <v>44171</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>2001925224</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="4">
         <v>2080</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="3" t="s">
+      <c r="F114" s="17"/>
+      <c r="G114" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>2001926081</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="4">
         <v>2080</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="3" t="s">
+      <c r="F115" s="17"/>
+      <c r="G115" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>2001927619</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="4">
         <v>3120</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="G116" s="3" t="s">
+      <c r="F116" s="17"/>
+      <c r="G116" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>2001930708</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="4">
         <v>2080</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="3" t="s">
+      <c r="F117" s="17"/>
+      <c r="G117" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>2002033798</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="4">
         <v>1040</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>2002035457</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="4">
         <v>2080</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>2002043399</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="4">
         <v>1040</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F120" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>2002047516</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="4">
         <v>1040</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>2002050466</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="4">
         <v>2080</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F122" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>2002053448</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="4">
         <v>3120</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F123" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>2002054876</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="4">
         <v>1040</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G124" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="3">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>2002058736</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="4">
         <v>2080</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G125" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>2002059298</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="4">
         <v>5200</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F126" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G126" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="3">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>2002063751</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="4">
         <v>3120</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="F127" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G127" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>2002064674</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="4">
         <v>1040</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="5" t="s">
         <v>153</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G128" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="3">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>2002114789</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="4">
         <v>2080</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G129" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>2002115550</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="4">
         <v>2080</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="5" t="s">
         <v>154</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G130" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>2002123095</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="4">
         <v>2080</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="E131" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="F131" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G131" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>2002123753</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="4">
         <v>1040</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="E132" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="F132" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G132" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>2002126195</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="4">
         <v>2080</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F133" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>2002247386</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="4">
         <v>5200</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="5">
         <v>44172</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="F134" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>2002253512</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="4">
         <v>3120</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="5">
         <v>44172</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="F135" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G135" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>2002257768</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="4">
         <v>5200</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="5">
         <v>44172</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G136" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>2002265968</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="4">
         <v>2080</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="5">
         <v>44172</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>2002266480</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="4">
         <v>1040</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="5">
         <v>44172</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>2002276321</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="4">
         <v>2080</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="5">
         <v>44172</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G139" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>2002287305</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="4">
         <v>1040</v>
       </c>
-      <c r="E140" s="4" t="s">
+      <c r="E140" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G140" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <v>2002292358</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="4">
         <v>1040</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>2002293715</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="4">
         <v>3120</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E142" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F142" s="5"/>
-      <c r="G142" s="3" t="s">
+      <c r="F142" s="17"/>
+      <c r="G142" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>2002392338</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="4">
         <v>3120</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F143" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>2002396298</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="4">
         <v>3120</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G144" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>2002429567</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="4">
         <v>2080</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E145" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F145" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G145" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>2002444220</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="4">
         <v>1040</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E146" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F146" s="5"/>
-      <c r="G146" s="3" t="s">
+      <c r="F146" s="17"/>
+      <c r="G146" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>2002446116</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="4">
         <v>520</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E147" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F147" s="5"/>
-      <c r="G147" s="3" t="s">
+      <c r="F147" s="17"/>
+      <c r="G147" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>2002448123</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="4">
         <v>3120</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>2002448744</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="4">
         <v>3120</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="F149" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G149" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>2002449644</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="4">
         <v>2080</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F150" s="5"/>
-      <c r="G150" s="3" t="s">
+      <c r="F150" s="17"/>
+      <c r="G150" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>2002508995</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="4">
         <v>3120</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E151" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F151" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="G151" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>2002516265</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="4">
         <v>3120</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="F152" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="G152" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>2002518153</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="4">
         <v>5200</v>
       </c>
-      <c r="E153" s="4" t="s">
+      <c r="E153" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F153" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G153" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>2002526945</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="4">
         <v>1040</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G154" s="3" t="s">
+      <c r="G154" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>2002595375</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="4">
         <v>3120</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="5">
         <v>44173</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>2002677493</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="4">
         <v>5200</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="5">
         <v>44173</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G156" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="3">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>2002690904</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="4">
         <v>2080</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="5">
         <v>44173</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G157" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>2002776836</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="4">
         <v>3120</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="5" t="s">
         <v>176</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G158" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="3">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>2002777452</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="4">
         <v>5200</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="5" t="s">
         <v>176</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>2002840756</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="4">
         <v>3120</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="3">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <v>2002841458</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="4">
         <v>5200</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <v>2002900091</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="4">
         <v>3120</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="5" t="s">
         <v>178</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="3">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <v>2002903534</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="4">
         <v>3120</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <v>2002904288</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="4">
         <v>5200</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="5" t="s">
         <v>179</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="3">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <v>2002906195</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="4">
         <v>2080</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="5" t="s">
         <v>180</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="3">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="4">
         <v>2002908068</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="4">
         <v>5200</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="5" t="s">
         <v>181</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G166" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="3">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <v>2003003679</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="4">
         <v>1040</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="5">
         <v>44174</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G167" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="3">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="4">
         <v>2003009248</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="4">
         <v>3120</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="5">
         <v>44174</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G168" s="3" t="s">
+      <c r="G168" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="3">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="4">
         <v>2003050676</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="4">
         <v>2080</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="5">
         <v>44174</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G169" s="3" t="s">
+      <c r="G169" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="3">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="4">
         <v>2003065335</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="4">
         <v>1040</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="5">
         <v>44174</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G170" s="3" t="s">
+      <c r="G170" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="3">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="4">
         <v>2003076860</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="4">
         <v>1040</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G171" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="3">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="4">
         <v>2003077550</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="4">
         <v>2080</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G172" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="3">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="4">
         <v>2003168532</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="4">
         <v>3120</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="5" t="s">
         <v>187</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G173" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="3">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="4">
         <v>2003198542</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="4">
         <v>5200</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G174" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="3">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="4">
         <v>2003224685</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="4">
         <v>2080</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="5" t="s">
         <v>189</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="3">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="4">
         <v>2003226746</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="4">
         <v>3120</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="5" t="s">
         <v>190</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G176" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="3">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="4">
         <v>2003228650</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="4">
         <v>1040</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="5" t="s">
         <v>191</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G177" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="3">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="4">
         <v>2003235612</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="4">
         <v>5200</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="5" t="s">
         <v>192</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G178" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="3">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="4">
         <v>2003288920</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="4">
         <v>1040</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G179" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="3">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="4">
         <v>2003290599</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="4">
         <v>3120</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="5" t="s">
         <v>194</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G180" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="3">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="4">
         <v>2003299185</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="4">
         <v>3120</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="5" t="s">
         <v>195</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G181" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="3">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="4">
         <v>2003303417</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="4">
         <v>1040</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G182" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="3">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="4">
         <v>2003440157</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="4">
         <v>5200</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="E183" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G183" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="3">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="4">
         <v>2003441996</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="4">
         <v>3120</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="5" t="s">
         <v>198</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G184" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="3">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="4">
         <v>2003445176</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="4">
         <v>2080</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E185" s="5" t="s">
         <v>199</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G185" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="3">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="4">
         <v>2003458767</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="4">
         <v>2080</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="5" t="s">
         <v>200</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G186" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="3">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="4">
         <v>2003464433</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="4">
         <v>1040</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="E187" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G187" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="3">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="4">
         <v>2003573473</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="4">
         <v>2080</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="E188" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G188" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="3">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="4">
         <v>2003612608</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="4">
         <v>3120</v>
       </c>
-      <c r="E189" s="4" t="s">
+      <c r="E189" s="5" t="s">
         <v>203</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G189" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="3">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="4">
         <v>2003625964</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="4">
         <v>5200</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="E190" s="5" t="s">
         <v>204</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G190" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="3">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="4">
         <v>2003679171</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="4">
         <v>2080</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E191" s="5" t="s">
         <v>205</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G191" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="3">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="4">
         <v>2003687987</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="4">
         <v>1040</v>
       </c>
-      <c r="E192" s="4" t="s">
+      <c r="E192" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G192" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="3">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="4">
         <v>2003700575</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="4">
         <v>4160</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="E193" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G193" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="3"/>
+      <c r="A194" s="4"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="3"/>
+      <c r="A195" s="4"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="3"/>
+      <c r="A196" s="4"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="3"/>
+      <c r="A197" s="4"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="3"/>
+      <c r="A198" s="4"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="3"/>
+      <c r="A199" s="4"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="3"/>
+      <c r="A200" s="4"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="3"/>
+      <c r="A201" s="4"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="3"/>
+      <c r="A202" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G193">
@@ -12224,23 +12236,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28571428571429" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="8.14285714285714" customWidth="1"/>
-    <col min="9" max="9" width="33.4285714285714" customWidth="1"/>
-    <col min="10" max="10" width="6.57142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.28571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.8571428571429" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.14285714285714" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.14285714285714" style="3"/>
+    <col min="9" max="9" width="33.4285714285714" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.57142857142857" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -12266,153 +12280,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
+    <row r="2" s="3" customFormat="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2003798580</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>5200</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>44176</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+      <c r="G2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2003822851</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2080</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>44176</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <f>SUM(D2:D193)</f>
-        <v>94640</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+        <v>100880</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2003850465</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>3120</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>44176</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" customFormat="1" spans="1:10">
+    <row r="5" s="3" customFormat="1" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2003850972</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3120</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>44176</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1">
         <f>J8*0.04</f>
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>2003865392</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2080</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" customFormat="1" spans="1:10">
+    <row r="7" s="3" customFormat="1" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>2003872159</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1040</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1"/>
@@ -12422,71 +12436,71 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>2003929810</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>3120</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
         <f>J3/1.04</f>
-        <v>91000</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>2003989711</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>5200</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>2004004535</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>2080</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12494,20 +12508,20 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2004066363</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>1040</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12515,20 +12529,20 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>2004075561</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>2080</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12536,20 +12550,20 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>2004076172</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>3120</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12557,20 +12571,20 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>2004077458</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>5200</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12578,20 +12592,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>2004172574</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>1040</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>44177</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12599,20 +12613,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>2004210604</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>5200</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>44177</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12620,20 +12634,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>2004232034</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>5200</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>44177</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12641,20 +12655,20 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>2004246801</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>1040</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12662,20 +12676,20 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>2004307224</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>1040</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12683,22 +12697,22 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>2004377153</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>2080</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12706,22 +12720,22 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>2004380406</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>5200</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12729,22 +12743,22 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>2004381282</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>5200</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12752,22 +12766,22 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>2004383653</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>2080</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12775,22 +12789,22 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>2004383737</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>2080</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12798,22 +12812,22 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>2004385244</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>5200</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12821,22 +12835,22 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>2004393199</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>5200</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12844,22 +12858,22 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>2004449754</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>3120</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12867,22 +12881,22 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>2004454152</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>1040</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12890,22 +12904,22 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>2004458040</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>5200</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12913,22 +12927,22 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>2004458444</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>2080</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12936,22 +12950,22 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>2004461115</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>3120</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12959,26 +12973,67 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>2004461755</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>1040</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2004609634</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="10">
+        <v>3120</v>
+      </c>
+      <c r="E33" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2004627567</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3120</v>
+      </c>
+      <c r="E34" s="11">
+        <v>44178</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -13021,6 +13076,8 @@
     <hyperlink ref="B30" r:id="rId2" display="2004458444" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B31" r:id="rId2" display="2004461115" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B32" r:id="rId2" display="2004461755" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B33" r:id="rId2" display="2004609634" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B34" r:id="rId2" display="2004627567" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Daily Orders/December-2020-Orders.xlsx
+++ b/Daily Orders/December-2020-Orders.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="241">
   <si>
     <t>S.No.</t>
   </si>
@@ -713,6 +713,36 @@
   </si>
   <si>
     <t>12 Dec 2020 / 17:23</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 13:39</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 15:24</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 15:26</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 15:27</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 15:28</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 15:29</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 17:18</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 17:19</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 17:22</t>
+  </si>
+  <si>
+    <t>13 Dec 2020 / 17:24</t>
   </si>
 </sst>
 </file>
@@ -721,9 +751,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -744,14 +774,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,22 +834,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,68 +873,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,6 +892,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -908,13 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,31 +956,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,103 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,13 +1064,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,17 +1132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,20 +1167,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,26 +1219,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,13 +1234,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,134 +1252,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,16 +1389,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,9 +1405,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -7692,7 +7713,7 @@
     <col min="2" max="2" width="11.7142857142857" style="1" customWidth="1"/>
     <col min="3" max="3" width="53" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1428571428571" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.1428571428571" style="12" customWidth="1"/>
     <col min="6" max="6" width="15.5714285714286" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.14285714285714" style="1"/>
@@ -7700,119 +7721,119 @@
     <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2000457904</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>520</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2000459639</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2080</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <f>SUM(D2:D193)</f>
         <v>407160</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2000459702</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1040</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2000459824</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3120</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1">
@@ -7821,66 +7842,66 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2000459948</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2080</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2000460024</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>2080</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>2000460228</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>2080</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
@@ -7889,4138 +7910,4138 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>2000460455</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>1040</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2000460519</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3120</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2000460671</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2080</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2000461912</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>3120</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2000520567</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>3120</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2000524687</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1040</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2000527468</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1040</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2000527861</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>2080</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2000528117</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>2080</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2000528639</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>520</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2000529214</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>2080</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2000529641</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>3120</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>2000529798</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>2080</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>2000530859</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>2080</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>2000531121</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>1040</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>2000704404</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2080</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>44168</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>2000705249</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>1040</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>44168</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2000705250</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>2080</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>44168</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>2000706287</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>2080</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="4" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>2000707358</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>2080</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="4" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2000707359</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>2080</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>2000716535</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>520</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>2000717983</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>2080</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2000719754</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>2080</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>2000877355</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>520</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>2000877611</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>2080</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>2000877978</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>1040</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="4" t="s">
+      <c r="F35" s="14"/>
+      <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>2000879642</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>2080</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>2000880108</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>1040</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="14"/>
+      <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>2000923957</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>1040</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="4" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>2000923958</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>1040</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="4" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>2000951047</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>1040</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>2000954122</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>3120</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>2001053572</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>1040</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>44169</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>2001065454</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>3120</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>44169</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>2001078326</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>1040</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>44169</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>2001093216</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>3120</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>44169</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>2001098656</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>1040</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <v>44169</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>2001103865</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>2080</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>44169</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>2001103978</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>1040</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <v>44169</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>2001106863</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>1040</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <v>44169</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>2001108994</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>4160</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <v>44169</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>2001111837</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>1040</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <v>44169</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>2001111960</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>2080</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <v>44169</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>2001112838</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>1040</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <v>44169</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>2001122112</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>1040</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>2001126873</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>2080</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>2001128999</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>3120</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>2001132197</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>2080</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F57" s="17"/>
-      <c r="G57" s="4" t="s">
+      <c r="F57" s="14"/>
+      <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>2001132622</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>2080</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="4" t="s">
+      <c r="F58" s="14"/>
+      <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>2001133395</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>2080</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="4" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>2001240580</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>2080</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>2001246287</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>1040</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="3">
         <v>2001253023</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>1040</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>2001268495</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>2080</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>2001278864</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>1040</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>2001281639</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>2080</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="17"/>
-      <c r="G65" s="4" t="s">
+      <c r="F65" s="14"/>
+      <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>2001283252</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>1040</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F66" s="17"/>
-      <c r="G66" s="4" t="s">
+      <c r="F66" s="14"/>
+      <c r="G66" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>2001283498</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>1040</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="17"/>
-      <c r="G67" s="4" t="s">
+      <c r="F67" s="14"/>
+      <c r="G67" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>2001337242</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>1040</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>2001337306</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>1040</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>2001339737</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>1040</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>2001345233</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>1040</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="G71" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>2001346118</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>1040</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>2001347296</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>1040</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>2001351245</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>1040</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>2001352718</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="3">
         <v>1040</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>2001353849</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>2080</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="4" t="s">
+      <c r="F76" s="14"/>
+      <c r="G76" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="3">
         <v>2001461178</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>1040</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="4">
         <v>44170</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>2001498248</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>1040</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="4">
         <v>44170</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
         <v>2001513931</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>1040</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="4">
         <v>44170</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>2001517908</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="3">
         <v>1040</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="4">
         <v>44170</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>2001518183</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>1040</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="4">
         <v>44170</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>2001528426</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>2080</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F82" s="17"/>
-      <c r="G82" s="4" t="s">
+      <c r="F82" s="14"/>
+      <c r="G82" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>2001533411</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>1040</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F83" s="17"/>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="14"/>
+      <c r="G83" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>2001533783</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>2080</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="4" t="s">
+      <c r="F84" s="14"/>
+      <c r="G84" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>2001534329</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>3120</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="4" t="s">
+      <c r="F85" s="14"/>
+      <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>2001613086</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>2080</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="17"/>
-      <c r="G86" s="4" t="s">
+      <c r="F86" s="14"/>
+      <c r="G86" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>2001624048</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>1040</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>2001640232</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>1040</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>2001640736</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>1040</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>2001651897</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>1040</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E90" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>2001653635</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>1040</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E91" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="3">
         <v>2001662525</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>1040</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="3">
         <v>2001666944</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>1040</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="G93" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="3">
         <v>2001670130</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>1040</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F94" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G94" s="4" t="s">
+      <c r="G94" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>2001672002</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>1040</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="3">
         <v>2001674626</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>1040</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E96" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="3">
         <v>2001683570</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>1040</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G97" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="3">
         <v>2001685202</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>2080</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E98" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="G98" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="3">
         <v>2001739892</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>1040</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E99" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="3">
         <v>2001743638</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>1040</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="4" t="s">
+      <c r="G100" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="3">
         <v>2001749385</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>1040</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="4">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="3">
         <v>2001750782</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>1040</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="G102" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="4">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="3">
         <v>2001752222</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>1040</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="4">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="3">
         <v>2001835486</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>5200</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="4">
         <v>44171</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G104" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="4">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="3">
         <v>2001850157</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>10400</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="4">
         <v>44171</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="G105" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="4">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>2001866152</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>3120</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4">
         <v>44171</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="4">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="3">
         <v>2001889945</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>1040</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4">
         <v>44171</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="3">
         <v>2001892778</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>2080</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="4">
         <v>44171</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="4">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>2001895752</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>1040</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4">
         <v>44171</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="4">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>2001897423</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>2080</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4">
         <v>44171</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>2001905681</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>3120</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="4">
         <v>44171</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>2001914859</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>2080</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4">
         <v>44171</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="4">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>2001918816</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>3120</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="4">
         <v>44171</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="4">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>2001925224</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>2080</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F114" s="17"/>
-      <c r="G114" s="4" t="s">
+      <c r="F114" s="14"/>
+      <c r="G114" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="4">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>2001926081</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>2080</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F115" s="17"/>
-      <c r="G115" s="4" t="s">
+      <c r="F115" s="14"/>
+      <c r="G115" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="4">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>2001927619</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>3120</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F116" s="17"/>
-      <c r="G116" s="4" t="s">
+      <c r="F116" s="14"/>
+      <c r="G116" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="4">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>2001930708</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C117" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>2080</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F117" s="17"/>
-      <c r="G117" s="4" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>2002033798</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C118" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="3">
         <v>1040</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="4">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="3">
         <v>2002035457</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C119" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>2080</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="4">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="3">
         <v>2002043399</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C120" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>1040</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G120" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="4">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="3">
         <v>2002047516</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C121" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>1040</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="4">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="3">
         <v>2002050466</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C122" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>2080</v>
       </c>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="4">
+      <c r="A123" s="3">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="3">
         <v>2002053448</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C123" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>3120</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E123" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="4">
+      <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="3">
         <v>2002054876</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C124" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>1040</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="4">
+      <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>2002058736</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C125" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>2080</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="4">
+      <c r="A126" s="3">
         <v>125</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="3">
         <v>2002059298</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C126" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>5200</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="G126" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="4">
+      <c r="A127" s="3">
         <v>126</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="3">
         <v>2002063751</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>3120</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="4">
+      <c r="A128" s="3">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="3">
         <v>2002064674</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>1040</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="4">
+      <c r="A129" s="3">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="3">
         <v>2002114789</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>2080</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="E129" s="4" t="s">
         <v>154</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="4">
+      <c r="A130" s="3">
         <v>129</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="3">
         <v>2002115550</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>2080</v>
       </c>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="4" t="s">
         <v>154</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="4">
+      <c r="A131" s="3">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="3">
         <v>2002123095</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>2080</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="4">
+      <c r="A132" s="3">
         <v>131</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="3">
         <v>2002123753</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>1040</v>
       </c>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="4">
+      <c r="A133" s="3">
         <v>132</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="3">
         <v>2002126195</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>2080</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="4">
+      <c r="A134" s="3">
         <v>133</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="3">
         <v>2002247386</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>5200</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="4">
         <v>44172</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="4">
+      <c r="A135" s="3">
         <v>134</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="3">
         <v>2002253512</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C135" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>3120</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="4">
         <v>44172</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="4">
+      <c r="A136" s="3">
         <v>135</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="3">
         <v>2002257768</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C136" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>5200</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="4">
         <v>44172</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="4">
+      <c r="A137" s="3">
         <v>136</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="3">
         <v>2002265968</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>2080</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="4">
         <v>44172</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="4">
+      <c r="A138" s="3">
         <v>137</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="3">
         <v>2002266480</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C138" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>1040</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="4">
         <v>44172</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="4">
+      <c r="A139" s="3">
         <v>138</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="3">
         <v>2002276321</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>2080</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="4">
         <v>44172</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="4">
+      <c r="A140" s="3">
         <v>139</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="3">
         <v>2002287305</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>1040</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>140</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="3">
         <v>2002292358</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>1040</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="4">
+      <c r="A142" s="3">
         <v>141</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <v>2002293715</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>3120</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F142" s="17"/>
-      <c r="G142" s="4" t="s">
+      <c r="F142" s="14"/>
+      <c r="G142" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="4">
+      <c r="A143" s="3">
         <v>142</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="3">
         <v>2002392338</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>3120</v>
       </c>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="4">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <v>2002396298</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>3120</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="4">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="3">
         <v>2002429567</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C145" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>2080</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="4">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="3">
         <v>2002444220</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C146" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>1040</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F146" s="17"/>
-      <c r="G146" s="4" t="s">
+      <c r="F146" s="14"/>
+      <c r="G146" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>146</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="3">
         <v>2002446116</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>520</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="4" t="s">
+      <c r="F147" s="14"/>
+      <c r="G147" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="4">
+      <c r="A148" s="3">
         <v>147</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="3">
         <v>2002448123</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>3120</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="E148" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="4">
+      <c r="A149" s="3">
         <v>148</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="3">
         <v>2002448744</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>3120</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="G149" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="3">
         <v>2002449644</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>2080</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F150" s="17"/>
-      <c r="G150" s="4" t="s">
+      <c r="F150" s="14"/>
+      <c r="G150" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="4">
+      <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="3">
         <v>2002508995</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>3120</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="G151" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="4">
+      <c r="A152" s="3">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="3">
         <v>2002516265</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>3120</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G152" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="4">
+      <c r="A153" s="3">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="3">
         <v>2002518153</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>5200</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="E153" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G153" s="4" t="s">
+      <c r="G153" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="4">
+      <c r="A154" s="3">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="3">
         <v>2002526945</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>1040</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G154" s="4" t="s">
+      <c r="G154" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="4">
+      <c r="A155" s="3">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="3">
         <v>2002595375</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>3120</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="4">
         <v>44173</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="G155" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="4">
+      <c r="A156" s="3">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="3">
         <v>2002677493</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C156" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>5200</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="4">
         <v>44173</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="G156" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="4">
+      <c r="A157" s="3">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="3">
         <v>2002690904</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>2080</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="4">
         <v>44173</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G157" s="4" t="s">
+      <c r="G157" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="4">
+      <c r="A158" s="3">
         <v>157</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="3">
         <v>2002776836</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>3120</v>
       </c>
-      <c r="E158" s="5" t="s">
+      <c r="E158" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="4">
+      <c r="A159" s="3">
         <v>158</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="3">
         <v>2002777452</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="3">
         <v>5200</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="E159" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="4">
+      <c r="A160" s="3">
         <v>159</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="3">
         <v>2002840756</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="3">
         <v>3120</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="E160" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="4">
+      <c r="A161" s="3">
         <v>160</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="3">
         <v>2002841458</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C161" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>5200</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E161" s="4" t="s">
         <v>177</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="4">
+      <c r="A162" s="3">
         <v>161</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="3">
         <v>2002900091</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C162" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>3120</v>
       </c>
-      <c r="E162" s="5" t="s">
+      <c r="E162" s="4" t="s">
         <v>178</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G162" s="4" t="s">
+      <c r="G162" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="4">
+      <c r="A163" s="3">
         <v>162</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="3">
         <v>2002903534</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>3120</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E163" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="G163" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="4">
+      <c r="A164" s="3">
         <v>163</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="3">
         <v>2002904288</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="3">
         <v>5200</v>
       </c>
-      <c r="E164" s="5" t="s">
+      <c r="E164" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="4">
+      <c r="A165" s="3">
         <v>164</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="3">
         <v>2002906195</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="3">
         <v>2080</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>180</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G165" s="4" t="s">
+      <c r="G165" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="4">
+      <c r="A166" s="3">
         <v>165</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="3">
         <v>2002908068</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>5200</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G166" s="4" t="s">
+      <c r="G166" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="4">
+      <c r="A167" s="3">
         <v>166</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="3">
         <v>2003003679</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="3">
         <v>1040</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="4">
         <v>44174</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G167" s="4" t="s">
+      <c r="G167" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="4">
+      <c r="A168" s="3">
         <v>167</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="3">
         <v>2003009248</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C168" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>3120</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="4">
         <v>44174</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G168" s="4" t="s">
+      <c r="G168" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="4">
+      <c r="A169" s="3">
         <v>168</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="3">
         <v>2003050676</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C169" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>2080</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="4">
         <v>44174</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G169" s="4" t="s">
+      <c r="G169" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="4">
+      <c r="A170" s="3">
         <v>169</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="3">
         <v>2003065335</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>1040</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="4">
         <v>44174</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="4">
+      <c r="A171" s="3">
         <v>170</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="3">
         <v>2003076860</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>1040</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G171" s="4" t="s">
+      <c r="G171" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="4">
+      <c r="A172" s="3">
         <v>171</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="3">
         <v>2003077550</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>2080</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G172" s="4" t="s">
+      <c r="G172" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="4">
+      <c r="A173" s="3">
         <v>172</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="3">
         <v>2003168532</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C173" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>3120</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>187</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G173" s="4" t="s">
+      <c r="G173" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="4">
+      <c r="A174" s="3">
         <v>173</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="3">
         <v>2003198542</v>
       </c>
-      <c r="C174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="3">
         <v>5200</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="4" t="s">
         <v>188</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G174" s="4" t="s">
+      <c r="G174" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="4">
+      <c r="A175" s="3">
         <v>174</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="3">
         <v>2003224685</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="3">
         <v>2080</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="G175" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="4">
+      <c r="A176" s="3">
         <v>175</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="3">
         <v>2003226746</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>3120</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="4" t="s">
         <v>190</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G176" s="4" t="s">
+      <c r="G176" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="4">
+      <c r="A177" s="3">
         <v>176</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="3">
         <v>2003228650</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>1040</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G177" s="4" t="s">
+      <c r="G177" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="4">
+      <c r="A178" s="3">
         <v>177</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="3">
         <v>2003235612</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>5200</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="4" t="s">
         <v>192</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G178" s="4" t="s">
+      <c r="G178" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="4">
+      <c r="A179" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="3">
         <v>2003288920</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>1040</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G179" s="4" t="s">
+      <c r="G179" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="4">
+      <c r="A180" s="3">
         <v>179</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="3">
         <v>2003290599</v>
       </c>
-      <c r="C180" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>3120</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="4" t="s">
         <v>194</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="G180" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="4">
+      <c r="A181" s="3">
         <v>180</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>2003299185</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>3120</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G181" s="4" t="s">
+      <c r="G181" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="4">
+      <c r="A182" s="3">
         <v>181</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>2003303417</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>1040</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G182" s="4" t="s">
+      <c r="G182" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="4">
+      <c r="A183" s="3">
         <v>182</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>2003440157</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>5200</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="4" t="s">
         <v>197</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="4" t="s">
+      <c r="G183" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="4">
+      <c r="A184" s="3">
         <v>183</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>2003441996</v>
       </c>
-      <c r="C184" s="4" t="s">
+      <c r="C184" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="3">
         <v>3120</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="4" t="s">
         <v>198</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G184" s="4" t="s">
+      <c r="G184" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="4">
+      <c r="A185" s="3">
         <v>184</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>2003445176</v>
       </c>
-      <c r="C185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="3">
         <v>2080</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="4" t="s">
         <v>199</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="G185" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="4">
+      <c r="A186" s="3">
         <v>185</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>2003458767</v>
       </c>
-      <c r="C186" s="4" t="s">
+      <c r="C186" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>2080</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="4" t="s">
         <v>200</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G186" s="4" t="s">
+      <c r="G186" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="4">
+      <c r="A187" s="3">
         <v>186</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" s="3">
         <v>2003464433</v>
       </c>
-      <c r="C187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="3">
         <v>1040</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G187" s="4" t="s">
+      <c r="G187" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="4">
+      <c r="A188" s="3">
         <v>187</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="3">
         <v>2003573473</v>
       </c>
-      <c r="C188" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>2080</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G188" s="4" t="s">
+      <c r="G188" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="4">
+      <c r="A189" s="3">
         <v>188</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" s="3">
         <v>2003612608</v>
       </c>
-      <c r="C189" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="3">
         <v>3120</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="4" t="s">
         <v>203</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G189" s="4" t="s">
+      <c r="G189" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="4">
+      <c r="A190" s="3">
         <v>189</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="3">
         <v>2003625964</v>
       </c>
-      <c r="C190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="3">
         <v>5200</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G190" s="4" t="s">
+      <c r="G190" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="4">
+      <c r="A191" s="3">
         <v>190</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" s="3">
         <v>2003679171</v>
       </c>
-      <c r="C191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>2080</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="4" t="s">
         <v>205</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G191" s="4" t="s">
+      <c r="G191" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="4">
+      <c r="A192" s="3">
         <v>191</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="3">
         <v>2003687987</v>
       </c>
-      <c r="C192" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="3">
         <v>1040</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="4" t="s">
         <v>207</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="G192" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="4">
+      <c r="A193" s="3">
         <v>192</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" s="3">
         <v>2003700575</v>
       </c>
-      <c r="C193" s="4" t="s">
+      <c r="C193" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>4160</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G193" s="4" t="s">
+      <c r="G193" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="4"/>
+      <c r="A194" s="3"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="4"/>
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="4"/>
+      <c r="A196" s="3"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="4"/>
+      <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="4"/>
+      <c r="A198" s="3"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="4"/>
+      <c r="A199" s="3"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="4"/>
+      <c r="A200" s="3"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="4"/>
+      <c r="A201" s="3"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="4"/>
+      <c r="A202" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G193">
@@ -12236,25 +12257,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28571428571429" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.8571428571429" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5714285714286" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.14285714285714" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.14285714285714" style="3"/>
-    <col min="9" max="9" width="33.4285714285714" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.57142857142857" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="6.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.14285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="33.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.57142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -12280,227 +12301,220 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2003798580</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>5200</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>44176</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:10">
+      <c r="G2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2003822851</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2080</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>44176</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="10">
         <f>SUM(D2:D193)</f>
-        <v>100880</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:10">
+        <v>132080</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2003850465</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3120</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>44176</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:10">
+      <c r="G4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>2003850972</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>3120</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>44176</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1">
         <f>J8*0.04</f>
-        <v>3880</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:10">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2003865392</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2080</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:10">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2003872159</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1040</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>2003929810</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>3120</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
         <f>J3/1.04</f>
-        <v>97000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>2003989711</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>5200</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>2004004535</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2080</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12508,20 +12522,20 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>2004066363</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1040</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12529,20 +12543,20 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>2004075561</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>2080</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12550,20 +12564,20 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>2004076172</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>3120</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12571,20 +12585,20 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>2004077458</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>5200</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12592,20 +12606,20 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>2004172574</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>1040</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>44177</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12613,20 +12627,20 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>2004210604</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>5200</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>44177</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12634,20 +12648,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>2004232034</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>5200</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>44177</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12655,20 +12669,20 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2004246801</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1040</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12676,20 +12690,20 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>2004307224</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1040</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12697,22 +12711,22 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>2004377153</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>2080</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12720,22 +12734,22 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>2004380406</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>5200</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12743,22 +12757,22 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>2004381282</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>5200</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12766,22 +12780,22 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>2004383653</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>2080</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12789,22 +12803,22 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>2004383737</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>2080</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12812,22 +12826,22 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>2004385244</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>5200</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12835,22 +12849,22 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>2004393199</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>5200</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12858,22 +12872,22 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>2004449754</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>3120</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12881,22 +12895,22 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>2004454152</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1040</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12904,22 +12918,22 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>2004458040</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>5200</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12927,22 +12941,22 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>2004458444</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>2080</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12950,22 +12964,22 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>2004461115</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>3120</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12973,20 +12987,20 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>2004461755</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>1040</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12994,46 +13008,335 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="5">
         <v>2004609634</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="5">
         <v>3120</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>44178</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>2004627567</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="5">
         <v>3120</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="7">
         <v>44178</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>78</v>
+      <c r="G34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2004639095</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2004743068</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="8">
+        <v>3120</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2004749252</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2080</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2004755188</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2004757845</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3120</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2004758489</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2080</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2004759076</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1040</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2004826039</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2080</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2004827402</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3120</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2004833398</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2080</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2004835965</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2004835974</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="8">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -13078,6 +13381,18 @@
     <hyperlink ref="B32" r:id="rId2" display="2004461755" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B33" r:id="rId2" display="2004609634" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
     <hyperlink ref="B34" r:id="rId2" display="2004627567" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B46" r:id="rId2" display="2004835974" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B45" r:id="rId2" display="2004835965" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B44" r:id="rId2" display="2004833398" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B43" r:id="rId2" display="2004827402" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B42" r:id="rId2" display="2004826039" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B41" r:id="rId2" display="2004759076" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B40" r:id="rId2" display="2004758489" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B39" r:id="rId2" display="2004757845" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B38" r:id="rId2" display="2004755188" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B37" r:id="rId2" display="2004749252" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B36" r:id="rId2" display="2004743068" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
+    <hyperlink ref="B35" r:id="rId2" display="2004639095" tooltip="https://fiori.jioconnect.com/sap/bc/ui5_ui5/sap/zehys_dashboard/javascript:void(0);"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
